--- a/LaTeX_v7/Figures/source_files/Vehicle_Auth_new.xlsx
+++ b/LaTeX_v7/Figures/source_files/Vehicle_Auth_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LaTeX_v7\Figures\source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46994B45-8D21-4F04-9313-F25193E61D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0978A2A-AD25-459E-A93E-330F2F5FD543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2ED6CC81-2714-48C0-A39C-FC7FD8B5CCD7}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
     <sheet name="Folha1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -127,20 +130,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Vehicle Authorization</a:t>
+              <a:t>Vehicle Auth.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t>w/o Enrollment Validation</a:t>
+              <a:t> w/o Enroll. validation</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -155,6 +149,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17902456726671223"/>
+          <c:y val="7.0249385317878469E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -341,7 +343,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -356,14 +358,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -580,62 +580,8 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
@@ -817,6 +763,7 @@
         <c:axId val="1123551264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1557,6 +1504,110 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Folha2"/>
+      <sheetName val="Folha1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Users (users)</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Time (ms)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>10</v>
+          </cell>
+          <cell r="B3">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>20</v>
+          </cell>
+          <cell r="B4">
+            <v>133</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>50</v>
+          </cell>
+          <cell r="B5">
+            <v>283</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>150</v>
+          </cell>
+          <cell r="B6">
+            <v>822</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>6</v>
+          </cell>
+          <cell r="D10">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>35</v>
+          </cell>
+          <cell r="D11">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>63.1</v>
+          </cell>
+          <cell r="D12">
+            <v>63.1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>131.6</v>
+          </cell>
+          <cell r="D13">
+            <v>131.6</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>475.7</v>
+          </cell>
+          <cell r="D14">
+            <v>475.7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1883,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26610B3-5DFD-4608-82C5-DEDCBA0870F6}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
